--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rln3-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rln3-Rxfp4.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.254802000000001</v>
+        <v>3.442313</v>
       </c>
       <c r="N2">
-        <v>15.764406</v>
+        <v>10.326939</v>
       </c>
       <c r="O2">
-        <v>0.3504112753060405</v>
+        <v>0.2120737065114005</v>
       </c>
       <c r="P2">
-        <v>0.3780684323171691</v>
+        <v>0.2368526181325179</v>
       </c>
       <c r="Q2">
-        <v>6.053933020552667</v>
+        <v>3.965807339225667</v>
       </c>
       <c r="R2">
-        <v>54.485397184974</v>
+        <v>35.692266053031</v>
       </c>
       <c r="S2">
-        <v>0.3504112753060405</v>
+        <v>0.2120737065114005</v>
       </c>
       <c r="T2">
-        <v>0.3780684323171691</v>
+        <v>0.2368526181325179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>7.715909</v>
       </c>
       <c r="O3">
-        <v>0.1715092540014102</v>
+        <v>0.158453673516874</v>
       </c>
       <c r="P3">
-        <v>0.1850460854365167</v>
+        <v>0.1769675649214407</v>
       </c>
       <c r="Q3">
         <v>2.963105383017889</v>
@@ -638,10 +638,10 @@
         <v>26.667948447161</v>
       </c>
       <c r="S3">
-        <v>0.1715092540014102</v>
+        <v>0.158453673516874</v>
       </c>
       <c r="T3">
-        <v>0.1850460854365167</v>
+        <v>0.1769675649214407</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.403906333333333</v>
+        <v>2.535264</v>
       </c>
       <c r="N4">
-        <v>7.211719</v>
+        <v>7.605791999999999</v>
       </c>
       <c r="O4">
-        <v>0.1603021168028026</v>
+        <v>0.1561923141402073</v>
       </c>
       <c r="P4">
-        <v>0.1729543946433467</v>
+        <v>0.174441985971967</v>
       </c>
       <c r="Q4">
-        <v>2.769483594183444</v>
+        <v>2.920817653152</v>
       </c>
       <c r="R4">
-        <v>24.925352347651</v>
+        <v>26.287358878368</v>
       </c>
       <c r="S4">
-        <v>0.1603021168028026</v>
+        <v>0.1561923141402073</v>
       </c>
       <c r="T4">
-        <v>0.1729543946433467</v>
+        <v>0.174441985971967</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.2910665</v>
+        <v>5.0943505</v>
       </c>
       <c r="N5">
-        <v>6.582133000000001</v>
+        <v>10.188701</v>
       </c>
       <c r="O5">
-        <v>0.219461515273456</v>
+        <v>0.3138522826957358</v>
       </c>
       <c r="P5">
-        <v>0.157855405691347</v>
+        <v>0.2336820724146239</v>
       </c>
       <c r="Q5">
-        <v>3.791559826076167</v>
+        <v>5.869080644754833</v>
       </c>
       <c r="R5">
-        <v>22.749358956457</v>
+        <v>35.214483868529</v>
       </c>
       <c r="S5">
-        <v>0.219461515273456</v>
+        <v>0.3138522826957358</v>
       </c>
       <c r="T5">
-        <v>0.157855405691347</v>
+        <v>0.2336820724146239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.474354</v>
+        <v>2.587785</v>
       </c>
       <c r="N6">
-        <v>4.423062</v>
+        <v>7.763355</v>
       </c>
       <c r="O6">
-        <v>0.09831583861629076</v>
+        <v>0.1594280231357824</v>
       </c>
       <c r="P6">
-        <v>0.1060756819116205</v>
+        <v>0.1780557585594505</v>
       </c>
       <c r="Q6">
-        <v>1.698568350355333</v>
+        <v>2.981325854255</v>
       </c>
       <c r="R6">
-        <v>15.287115153198</v>
+        <v>26.831932688295</v>
       </c>
       <c r="S6">
-        <v>0.09831583861629076</v>
+        <v>0.1594280231357824</v>
       </c>
       <c r="T6">
-        <v>0.1060756819116205</v>
+        <v>0.1780557585594505</v>
       </c>
     </row>
   </sheetData>
